--- a/Test/Lawnmower/T2/Sensors_data_1000009.xlsx
+++ b/Test/Lawnmower/T2/Sensors_data_1000009.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -475,13 +475,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.9822015751169206</v>
+        <v>0.5501609687568346</v>
       </c>
       <c r="D2" t="n">
-        <v>0.000756791749890001</v>
+        <v>0.02135305811673353</v>
       </c>
       <c r="E2" t="n">
-        <v>0.04463775414255278</v>
+        <v>0.09297958688756813</v>
       </c>
       <c r="F2" t="n">
         <v>4</v>
@@ -500,16 +500,16 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.9959532485998039</v>
+        <v>0.9785311392843223</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0002103088198402749</v>
+        <v>0.001127229324370458</v>
       </c>
       <c r="E3" t="n">
-        <v>0.09625180161460689</v>
+        <v>0.300360935121377</v>
       </c>
       <c r="F3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -525,13 +525,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.5628365368709358</v>
+        <v>0.05266296697986483</v>
       </c>
       <c r="D4" t="n">
-        <v>0.01291453914075879</v>
+        <v>0.01413585241160251</v>
       </c>
       <c r="E4" t="n">
-        <v>0.4176157719492155</v>
+        <v>0.710161913920366</v>
       </c>
       <c r="F4" t="n">
         <v>4</v>
@@ -550,18 +550,93 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.9989756772983439</v>
+        <v>0.8826132414881548</v>
       </c>
       <c r="D5" t="n">
-        <v>8.504386128601048e-05</v>
+        <v>0.006877378027585359</v>
       </c>
       <c r="E5" t="n">
-        <v>0.008090528772180527</v>
+        <v>0.03510273975460437</v>
       </c>
       <c r="F5" t="n">
+        <v>4</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>s5</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>0.9905742472851025</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.0005895496053618036</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.1746769737816385</v>
+      </c>
+      <c r="F6" t="n">
+        <v>4</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="G5" t="n">
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>s6</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>0.9129504637317487</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.005584336933780387</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.008670107452040499</v>
+      </c>
+      <c r="F7" t="n">
+        <v>4</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>s7</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>0.985019647950918</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.0005525802165083684</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.3999971499676461</v>
+      </c>
+      <c r="F8" t="n">
+        <v>5</v>
+      </c>
+      <c r="G8" t="n">
         <v>0</v>
       </c>
     </row>
